--- a/Сравнения с аналогами.xlsx
+++ b/Сравнения с аналогами.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E90EED9-7989-42CA-87DE-9A309F4535AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C72941-8412-4A91-8480-38DEC0C34789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Программа</t>
   </si>
@@ -76,16 +76,43 @@
     <t>ideaMaker</t>
   </si>
   <si>
-    <t>программа для 3D принтеров с поддержкой G- кода</t>
-  </si>
-  <si>
     <t>офлайн, параллельное открытие</t>
   </si>
   <si>
     <t>Cura</t>
   </si>
   <si>
-    <t>Ещё одна мощьная программа для 3D принтеров</t>
+    <t>Ещё одна мощьная программа для 3D принтеров с возможностью просмотра G-кода (но со скромными возможностями его редактирования, возможно только добавление опор для печатной модели)</t>
+  </si>
+  <si>
+    <t>программа для 3D принтеров с поддержкой G- кода, есть возможность его редактирования (не всегда может быть удобной), также может рассчитать время работы и стоимость изделия, если используется 3D печать</t>
+  </si>
+  <si>
+    <t>Slic3r Prusa Edition</t>
+  </si>
+  <si>
+    <t>Программа для 3D печати. Может окрашивать внешние и внутренние контуры (заполнитель) модели. Возможности редактирования G-кода нет.</t>
+  </si>
+  <si>
+    <t>Параллельное открытие</t>
+  </si>
+  <si>
+    <t>параллельное открытие, бесплатно</t>
+  </si>
+  <si>
+    <t>EX Digimat-AM</t>
+  </si>
+  <si>
+    <t>Очень мощная профессианальная программа (закрыта для общего доступа). Способна показывать тонну (бесполезной, если говорить о G-коде) информации, такой как нагрузки на модель, её прочность и температуры во время печати.</t>
+  </si>
+  <si>
+    <t>Есть в общем доступе, параллельное открытие</t>
+  </si>
+  <si>
+    <t>ВЫВОД</t>
+  </si>
+  <si>
+    <t>Ни в одной программе нет возможности параллельного открытия, как и возможности быстрого скачивания и запуска на почти любом ПК с Windows. Это и есть основные плюсы моей программы.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,6 +263,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -517,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -609,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -617,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -625,24 +653,36 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
@@ -863,6 +903,16 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
